--- a/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_const.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_const.xlsx
@@ -6316,9 +6316,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80CC7FC-D534-423D-8C07-C909BD8DDAB2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{144F745B-4FCD-4592-9871-715A2CE62CA4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE77721A-4291-48EB-81FF-F689CF3AC846}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B125B48-C0CB-4846-A9DB-DE1613C8A3EA}"/>
 </file>